--- a/Breast_cancer_app/uploads/Book1.xlsx
+++ b/Breast_cancer_app/uploads/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOSSMAN\OneDrive\Desktop\BC 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCFD7B-29B2-4ADA-971C-10F1D20F81AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97479E5-A19A-44E2-85A9-FE4FE19E36B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{93BF4664-A817-4B4E-AEF2-485086AC4D24}"/>
   </bookViews>
@@ -375,288 +375,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84AF2D2-772F-4581-BA83-8286C09F1AD6}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>11.2</v>
+        <v>15.78</v>
       </c>
       <c r="B1">
-        <v>29.37</v>
+        <v>22.91</v>
       </c>
       <c r="C1">
-        <v>70.67</v>
+        <v>105.7</v>
       </c>
       <c r="D1">
-        <v>386</v>
+        <v>782.6</v>
       </c>
       <c r="E1">
-        <v>7.4490000000000001E-2</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="F1">
-        <v>3.5580000000000001E-2</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>9.4789999999999999E-2</v>
       </c>
       <c r="I1">
-        <v>0.106</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="J1">
-        <v>5.5019999999999999E-2</v>
+        <v>7.331E-2</v>
       </c>
       <c r="K1">
-        <v>0.31409999999999999</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="L1">
-        <v>3.8959999999999999</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="M1">
-        <v>2.0409999999999999</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="N1">
-        <v>22.81</v>
+        <v>58.63</v>
       </c>
       <c r="O1">
-        <v>7.5940000000000001E-3</v>
+        <v>8.6990000000000001E-3</v>
       </c>
       <c r="P1">
-        <v>8.8780000000000005E-3</v>
+        <v>3.9759999999999997E-2</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="S1">
-        <v>1.9890000000000001E-2</v>
+        <v>1.495E-2</v>
       </c>
       <c r="T1">
-        <v>1.7730000000000001E-3</v>
+        <v>5.9839999999999997E-3</v>
       </c>
       <c r="U1">
-        <v>11.92</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="V1">
-        <v>38.299999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="W1">
-        <v>75.19</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="X1">
-        <v>439.6</v>
+        <v>1272</v>
       </c>
       <c r="Y1">
-        <v>9.2670000000000002E-2</v>
+        <v>0.1855</v>
       </c>
       <c r="Z1">
-        <v>5.4940000000000003E-2</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="AA1">
-        <v>0</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="AB1">
-        <v>0</v>
+        <v>0.2034</v>
       </c>
       <c r="AC1">
-        <v>0.15659999999999999</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="AD1">
-        <v>5.9049999999999998E-2</v>
+        <v>0.12520000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15.22</v>
+        <v>17.95</v>
       </c>
       <c r="B2">
-        <v>30.62</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="C2">
-        <v>103.4</v>
+        <v>114.2</v>
       </c>
       <c r="D2">
-        <v>716.9</v>
+        <v>982</v>
       </c>
       <c r="E2">
-        <v>0.1048</v>
+        <v>8.4019999999999997E-2</v>
       </c>
       <c r="F2">
-        <v>0.2087</v>
+        <v>6.7220000000000002E-2</v>
       </c>
       <c r="G2">
-        <v>0.255</v>
+        <v>7.2929999999999995E-2</v>
       </c>
       <c r="H2">
-        <v>9.4289999999999999E-2</v>
+        <v>5.5960000000000003E-2</v>
       </c>
       <c r="I2">
-        <v>0.21279999999999999</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="J2">
-        <v>7.152E-2</v>
+        <v>5.0250000000000003E-2</v>
       </c>
       <c r="K2">
-        <v>0.26019999999999999</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="L2">
-        <v>1.2050000000000001</v>
+        <v>1.214</v>
       </c>
       <c r="M2">
-        <v>2.3620000000000001</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="N2">
-        <v>22.65</v>
+        <v>54.04</v>
       </c>
       <c r="O2">
-        <v>4.6249999999999998E-3</v>
+        <v>4.0239999999999998E-3</v>
       </c>
       <c r="P2">
-        <v>4.8439999999999997E-2</v>
+        <v>8.4220000000000007E-3</v>
       </c>
       <c r="Q2">
-        <v>7.3590000000000003E-2</v>
+        <v>2.291E-2</v>
       </c>
       <c r="R2">
-        <v>1.6080000000000001E-2</v>
+        <v>9.8630000000000002E-3</v>
       </c>
       <c r="S2">
-        <v>2.137E-2</v>
+        <v>5.0139999999999997E-2</v>
       </c>
       <c r="T2">
-        <v>6.1419999999999999E-3</v>
+        <v>1.902E-3</v>
       </c>
       <c r="U2">
-        <v>17.52</v>
+        <v>20.58</v>
       </c>
       <c r="V2">
-        <v>42.79</v>
+        <v>27.83</v>
       </c>
       <c r="W2">
-        <v>128.69999999999999</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="X2">
-        <v>915</v>
+        <v>1261</v>
       </c>
       <c r="Y2">
-        <v>0.14169999999999999</v>
+        <v>0.1072</v>
       </c>
       <c r="Z2">
-        <v>0.79169999999999996</v>
+        <v>0.1202</v>
       </c>
       <c r="AA2">
-        <v>1.17</v>
+        <v>0.22489999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.2356</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.40889999999999999</v>
+        <v>0.48820000000000002</v>
       </c>
       <c r="AD2">
-        <v>0.1409</v>
+        <v>6.1109999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.76</v>
+        <v>11.41</v>
       </c>
       <c r="B3">
-        <v>24.54</v>
+        <v>10.82</v>
       </c>
       <c r="C3">
-        <v>47.92</v>
+        <v>73.34</v>
       </c>
       <c r="D3">
-        <v>181</v>
+        <v>403.3</v>
       </c>
       <c r="E3">
-        <v>5.2630000000000003E-2</v>
+        <v>9.3729999999999994E-2</v>
       </c>
       <c r="F3">
-        <v>4.3619999999999999E-2</v>
+        <v>6.6850000000000007E-2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.5119999999999998E-2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.623E-2</v>
       </c>
       <c r="I3">
-        <v>0.15870000000000001</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="J3">
-        <v>5.8840000000000003E-2</v>
+        <v>6.1129999999999997E-2</v>
       </c>
       <c r="K3">
-        <v>0.38569999999999999</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="L3">
-        <v>1.4279999999999999</v>
+        <v>0.4607</v>
       </c>
       <c r="M3">
-        <v>2.548</v>
+        <v>1.103</v>
       </c>
       <c r="N3">
-        <v>19.149999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="O3">
-        <v>7.1890000000000001E-3</v>
+        <v>6.0400000000000002E-3</v>
       </c>
       <c r="P3">
-        <v>4.6600000000000001E-3</v>
+        <v>1.529E-2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.5140000000000001E-2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>6.4599999999999996E-3</v>
       </c>
       <c r="S3">
-        <v>2.6759999999999999E-2</v>
+        <v>1.3440000000000001E-2</v>
       </c>
       <c r="T3">
-        <v>2.7829999999999999E-3</v>
+        <v>2.2060000000000001E-3</v>
       </c>
       <c r="U3">
-        <v>9.4559999999999995</v>
+        <v>12.82</v>
       </c>
       <c r="V3">
-        <v>30.37</v>
+        <v>15.97</v>
       </c>
       <c r="W3">
-        <v>59.16</v>
+        <v>83.74</v>
       </c>
       <c r="X3">
-        <v>268.60000000000002</v>
+        <v>510.5</v>
       </c>
       <c r="Y3">
-        <v>8.9959999999999998E-2</v>
+        <v>0.15479999999999999</v>
       </c>
       <c r="Z3">
-        <v>6.4439999999999997E-2</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.2102</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>8.9580000000000007E-2</v>
       </c>
       <c r="AC3">
-        <v>0.28710000000000002</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="AD3">
-        <v>7.0389999999999994E-2</v>
+        <v>8.523E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18.66</v>
+      </c>
+      <c r="B4">
+        <v>17.12</v>
+      </c>
+      <c r="C4">
+        <v>121.4</v>
+      </c>
+      <c r="D4">
+        <v>1077</v>
+      </c>
+      <c r="E4">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.11</v>
+      </c>
+      <c r="G4">
+        <v>0.1457</v>
+      </c>
+      <c r="H4">
+        <v>8.6650000000000005E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.1966</v>
+      </c>
+      <c r="J4">
+        <v>6.2129999999999998E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="L4">
+        <v>1.581</v>
+      </c>
+      <c r="M4">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="N4">
+        <v>90.47</v>
+      </c>
+      <c r="O4">
+        <v>8.1019999999999998E-3</v>
+      </c>
+      <c r="P4">
+        <v>2.1010000000000001E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.3419999999999998E-2</v>
+      </c>
+      <c r="R4">
+        <v>1.601E-2</v>
+      </c>
+      <c r="S4">
+        <v>2.0449999999999999E-2</v>
+      </c>
+      <c r="T4">
+        <v>4.5700000000000003E-3</v>
+      </c>
+      <c r="U4">
+        <v>22.25</v>
+      </c>
+      <c r="V4">
+        <v>24.9</v>
+      </c>
+      <c r="W4">
+        <v>145.4</v>
+      </c>
+      <c r="X4">
+        <v>1549</v>
+      </c>
+      <c r="Y4">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.2291</v>
+      </c>
+      <c r="AA4">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.28939999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>8.4559999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24.25</v>
+      </c>
+      <c r="B5">
+        <v>20.2</v>
+      </c>
+      <c r="C5">
+        <v>166.2</v>
+      </c>
+      <c r="D5">
+        <v>1761</v>
+      </c>
+      <c r="E5">
+        <v>0.1447</v>
+      </c>
+      <c r="F5">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.42680000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="J5">
+        <v>6.8769999999999998E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="L5">
+        <v>3.12</v>
+      </c>
+      <c r="M5">
+        <v>9.8070000000000004</v>
+      </c>
+      <c r="N5">
+        <v>233</v>
+      </c>
+      <c r="O5">
+        <v>2.333E-2</v>
+      </c>
+      <c r="P5">
+        <v>9.8059999999999994E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.1278</v>
+      </c>
+      <c r="R5">
+        <v>1.822E-2</v>
+      </c>
+      <c r="S5">
+        <v>4.5469999999999997E-2</v>
+      </c>
+      <c r="T5">
+        <v>9.8750000000000001E-3</v>
+      </c>
+      <c r="U5">
+        <v>26.02</v>
+      </c>
+      <c r="V5">
+        <v>23.99</v>
+      </c>
+      <c r="W5">
+        <v>180.9</v>
+      </c>
+      <c r="X5">
+        <v>2073</v>
+      </c>
+      <c r="Y5">
+        <v>0.1696</v>
+      </c>
+      <c r="Z5">
+        <v>0.4244</v>
+      </c>
+      <c r="AA5">
+        <v>0.58030000000000004</v>
+      </c>
+      <c r="AB5">
+        <v>0.2248</v>
+      </c>
+      <c r="AC5">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>8.0089999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14.5</v>
+      </c>
+      <c r="B6">
+        <v>10.89</v>
+      </c>
+      <c r="C6">
+        <v>94.28</v>
+      </c>
+      <c r="D6">
+        <v>640.70000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.1101</v>
+      </c>
+      <c r="F6">
+        <v>0.1099</v>
+      </c>
+      <c r="G6">
+        <v>8.8419999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>5.7779999999999998E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="J6">
+        <v>6.4019999999999994E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="M6">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="N6">
+        <v>24.19</v>
+      </c>
+      <c r="O6">
+        <v>3.8180000000000002E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.2760000000000001E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.8819999999999998E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>2.8080000000000002E-3</v>
+      </c>
+      <c r="U6">
+        <v>15.7</v>
+      </c>
+      <c r="V6">
+        <v>15.98</v>
+      </c>
+      <c r="W6">
+        <v>102.8</v>
+      </c>
+      <c r="X6">
+        <v>745.5</v>
+      </c>
+      <c r="Y6">
+        <v>0.1313</v>
+      </c>
+      <c r="Z6">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.1221</v>
+      </c>
+      <c r="AC6">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>8.0060000000000006E-2</v>
       </c>
     </row>
   </sheetData>
